--- a/Promtps.xlsx
+++ b/Promtps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nistgov-my.sharepoint.com/personal/nns13_nist_gov/Documents/project/AM-dataset-for-GenAI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{F213A528-E134-4D80-B1BE-403132E30A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3101A3D-39F2-4679-BD9A-CEC8786007BA}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{F213A528-E134-4D80-B1BE-403132E30A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F58F3155-EB11-4776-AA24-EE782F0852CE}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,90 +50,16 @@
     <t>Melt pool defect detection (zero shot)</t>
   </si>
   <si>
-    <t>"You are an expert in metal additive manufacturing. You are analysing melt pool images from powder bed fusion addiitve manufacturing process. Your task is to classify images as defect-free or defects .
-**Instructions:**
-1. Carefully investigate the pattern of the melt pool images  to detect any potential defects.
-2. Assign a **label** to  clasify the image.
-   - **defect-free** when there is no defct in the image.
-   - **defect**  when the image is defective
-  3. **Output Format:**
-   - Provide only the label for the predicted outcome."""</t>
-  </si>
-  <si>
     <t>Melt pool defect detection (few shot)</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">"You are analyzing melt pool images from a powder
-bed fusion additive manufacturing process. Your task is to
-classify images as defect-free or defective based on the fol-
-lowing calculations.                                         
-Step 1: Thresholding the Image Thresholding is applied
-as follows: threshold(x, y) = 255 if image (x, y) ≥ 127, else 0
-Step 2: Calculate Area area = sum(threshold == 255)
-Step 3: Compute Mean Threshold Value
-threshold value = mean(image)
-Example 1: Defect-Free Image
-Image: {example 1}
-Computed Threshold Value: {threshold 1:.2f}
-Example 2: Defective Image
-Image: {example 2}
-Computed Threshold Value: {threshold 2:.2f}
-Computed Area: {area 2}
-Classification: {classification 2}
-Score: {score 2}
-**Instructions:**
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Classify a New Image </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Given a new melt pool image, com-
-pute the ‘Threshold Value’ and ‘Area’ using the formulas
-above. Based on the values and above examples, determine
-whether the image is ‘defect-free’ or ‘defective’ if both con-
-ditions are satisfied mention ”defect-free” after ”classifica-
-tion” and if one of the conditions is not satisfied mention
-”defective” after ‘classification.
-**Output Format:**
-   - Provide only the label for the predicted outcome."""
-</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve"> Free-form question </t>
   </si>
   <si>
     <t>True/false questions</t>
   </si>
   <si>
-    <t>"You are an expert in metal additive manufacturing. You have deep knowledge about the design, process, planning, monitoring and post process knowlege about additive manufactuirng or 3D printing. You will asccess the following statement and  write it is true or false. do not write extra woed or explanation"</t>
-  </si>
-  <si>
     <t>porosity label prediction (zero shot)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"You are an expert in metal additive manufacturing. You have deep knowledge about the design, process, planning, monitoring and post process for additive manufactuirng or 3D printing. Your task is evaluate , select the best answer from  the options. Do not provide any explanation of your reponse. only to provide the correct answer"
-</t>
-  </si>
-  <si>
-    <t>"You are an expert in metal additive manufacturing. You have deep knowledge about the design, process, planning, monitoring and post process knowlege about additive manufactuirng or 3D printing. You will give concise, straightforward answer for the questions."</t>
   </si>
   <si>
     <t>"You are an expert in metal additive manufacturing. You are analysing X-CT images from the powder bed fusion additive manufacturing process. Your task is to identify small and large porosity-containing images.
@@ -145,12 +71,56 @@
   3. **Output Format:**
    - Provide only the label for the predicted outcome."""</t>
   </si>
+  <si>
+    <t>"You are an expert in metal additive manufacturing. You have deep knowledge about the design, process, planning, monitoring, and post-process knowledge about additive manufacturing or 3D printing. You will access the following statement and  write it is true or false. do not write extra words or explanation."</t>
+  </si>
+  <si>
+    <t>"You are an expert in metal additive manufacturing. You have deep knowledge about the design, process, planning, monitoring, and post-process knowledge about additive manufacturing or 3D printing. You will give a concise, straightforward answer to the questions. Try to answer using only one sentence."</t>
+  </si>
+  <si>
+    <t>"You are an expert in metal additive manufacturing. You are analysing melt pool images from powder bed fusion additive manufacturing process. "
+"**Instructions:** 1. Carefully investigate the pattern of the melt pool images to detect any potential defects. "
+"2. Assign a **label** to classify the image. - **Good** when there is no defect in the image. - **Bad** when the image is defective. "
+ "3. **Output Format:** Provide only the label for the predicted outcome."</t>
+  </si>
+  <si>
+    <t>"""You are analyzing melt pool images from a powder
+                    bed fusion additive manufacturing process. Your task is to
+                    classify images as 'good' or 'bad' based on the fol-
+                    lowing calculations and the visual patterns of the image.                                         
+                    "**Step 1: Thresholding Rule**\n"
+                    "- Threshold(x, y) = 255 if image(x, y) ≥ 127, else 0\n\n"
+                    "**Step 2: Area Calculation**\n"
+                    "- Area = sum(threshold == 255)\n\n"
+                    "**Step 3: Mean Threshold Value**\n"
+                    "- Threshold value = mean(image)\n\n"
+                    "### **Example 1: Good Image**\n"
+                    "- Image: frame_000184.bmp"
+                    "- Computed Threshold Value: 7.08"
+                    "- Computed White Area: 141"
+                    "- Classification: **Good**"
+                    "### **Example 2: Bad Image**\n"
+                    "- Image: frame_000701.bmp"
+                    "- Computed Threshold Value: 10.88"
+                    "- Computed White Area: 336"
+                    "- Classification: **Bad**"
+                    **Instructions:**
+                    "Based on the formulas and visual pattern, output only the following format: Do not explain in detail in the response.
+                    "**Output Format:**\n"
+                        "- Threshold Value: &lt;value&gt;\n"
+                        "- White Area: &lt;value&gt;\n"
+                        "- Classification: &lt;Good or Bad&gt;"""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"You are an expert in metal additive manufacturing. You have deep knowledge about the design, process, planning, monitoring, and post-process for additive manufacturing or 3D printing. Your task is to evaluate and select the best answer from the options. Do not provide any explanation of your response. Only to provide the correct answer"
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,14 +135,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -242,6 +204,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -531,8 +497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -558,20 +524,20 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>9</v>
@@ -579,26 +545,26 @@
     </row>
     <row r="5" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
